--- a/org_eval/resources/format/process.xlsx
+++ b/org_eval/resources/format/process.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sandbox\git\org-eval\org_eval\resources\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sandbox\git\playground\org-eval\org_eval\resources\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,6 +293,9 @@
     <xf numFmtId="2" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,14 +320,11 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,7 +609,7 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -625,32 +625,32 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,9 +689,9 @@
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -708,9 +708,9 @@
       <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -727,9 +727,9 @@
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -759,10 +759,10 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9"/>
@@ -2128,18 +2128,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:O100">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2.5"/>
-        <cfvo type="num" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/org_eval/resources/format/process.xlsx
+++ b/org_eval/resources/format/process.xlsx
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -617,8 +617,8 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="4" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2118,6 +2118,7 @@
       <c r="N102" s="16"/>
       <c r="O102" s="16"/>
     </row>
+    <row r="103" spans="5:15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B4:D4"/>
